--- a/src/test/testdaten_insert_rentenversicherungsbeitraege/Rentenversicherungsbeitraege - andere Beitragssaetze.xlsx
+++ b/src/test/testdaten_insert_rentenversicherungsbeitraege/Rentenversicherungsbeitraege - andere Beitragssaetze.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_rentenversicherungsbeitraege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492893EE-8EA3-412B-9E52-122BE7C63173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC96E24B-CB6A-4F22-95ED-F77BBF81EB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4992" yWindow="1728" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/testdaten_insert_rentenversicherungsbeitraege/Rentenversicherungsbeitraege - andere Beitragssaetze.xlsx
+++ b/src/test/testdaten_insert_rentenversicherungsbeitraege/Rentenversicherungsbeitraege - andere Beitragssaetze.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_rentenversicherungsbeitraege\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC96E24B-CB6A-4F22-95ED-F77BBF81EB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139F8CF7-EFAD-4765-9752-1620B132E9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37485" yWindow="3960" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>Eintragsdatum</t>
   </si>
   <si>
-    <t>17.12.2023</t>
+    <t>01.01.2025</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
